--- a/doc/需求分析.xlsx
+++ b/doc/需求分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeang\Documents\GitHub\MaskLabel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E488B-6C5B-4F16-B0F6-9B9B9EF44094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B5FE6E-D7AF-4F2C-8E38-283ED24080ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾輪靈敏度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +93,14 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -113,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,11 +152,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +188,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -492,6 +523,9 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -545,10 +579,37 @@
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
     </row>
+    <row r="17" spans="1:2" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求分析.xlsx
+++ b/doc/需求分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeang\Documents\GitHub\MaskLabel\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B5FE6E-D7AF-4F2C-8E38-283ED24080ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357B5CB-39E1-4F8F-8467-3C477086CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以滑鼠中鍵來拖動顯示範圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>編輯Mask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,46 @@
   </si>
   <si>
     <t>滾輪靈敏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設編輯workspace/下的檔案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將結果輸出到workspace/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出label的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀檔繼續編輯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊畫面新增邊界點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊按鈕來生成mask並記錄在dict中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示已經所有加入的mask的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將可視範圍聚焦在選擇的mask上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以滑鼠右鍵來拖動顯示範圍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示滑鼠位置及可視範圍大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,15 +188,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -178,21 +205,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -477,14 +504,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="38.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,116 +521,173 @@
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
